--- a/FA70_TestData_DeleteMassAdditions_21C.xlsx
+++ b/FA70_TestData_DeleteMassAdditions_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Fixed Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EED974-9374-484C-8452-0D979387AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D58531-9B8F-4F89-A679-E1DCC0FBA553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>UserName</t>
   </si>
@@ -48,15 +48,6 @@
   </si>
   <si>
     <t>US ASSET BOOK</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
-    <t>Oracle1234</t>
   </si>
   <si>
     <t>LowWait</t>
@@ -531,56 +522,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N2" sqref="L2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.7265625" style="4"/>
-    <col min="8" max="8" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.453125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.54296875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="44.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.54296875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="38.453125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="10.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.1796875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="7" width="8.77734375" style="4"/>
+    <col min="8" max="8" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.44140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.5546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="44.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.5546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="38.44140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="10.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.21875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="15" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="27" width="18.54296875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="8.7265625" style="4"/>
+    <col min="24" max="27" width="18.5546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -644,15 +635,9 @@
         <v>6</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="5"/>
@@ -668,11 +653,8 @@
       <c r="AA2" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="https://edrx.fa.us2.oraclecloud.com/" xr:uid="{B58F859C-7A2F-488D-8B0E-C3D4E5C7D0EA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -682,12 +664,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
